--- a/bills/Bills.xlsx
+++ b/bills/Bills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\dhonan-ubuntu\Workspaces\oiltank-checker\bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4F0E74-A5A0-4877-8950-FB62295CB33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737FA101-3AB4-4076-B5E4-BD7902123C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>E-Commerce</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Kristal 16MHz</t>
   </si>
   <si>
-    <t>Resin Bening 1Kg</t>
-  </si>
-  <si>
     <t>LCD OLED Putih 0.91" (1)</t>
   </si>
   <si>
@@ -133,6 +127,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Resin Bening 1 kg + Katalis</t>
+  </si>
+  <si>
+    <t>Filamen.com</t>
+  </si>
+  <si>
+    <t>Hand Sanitizer (Alkohol)</t>
+  </si>
+  <si>
+    <t>3D Print ABS Case</t>
+  </si>
+  <si>
+    <t>Alfamidi</t>
+  </si>
+  <si>
+    <t>Toko</t>
   </si>
 </sst>
 </file>
@@ -140,7 +152,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -186,38 +198,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,309 +523,339 @@
     <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4">
+        <v>59523.66</v>
+      </c>
+      <c r="F2" s="6">
+        <f>SUM(E2:E32)</f>
+        <v>1676574.1600000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7">
-        <v>59523.66</v>
-      </c>
-      <c r="F2" s="8">
-        <f>SUM(E2:E32)</f>
-        <v>1549302.1600000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="4">
+        <v>393021.5</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7">
-        <v>393021.5</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="4">
+        <v>27824</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7">
-        <v>27824</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="4">
+        <v>74588</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E6" s="4">
+        <v>19750</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>29110</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>651850</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8">
+        <v>62490</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>48400</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7">
         <v>13</v>
       </c>
-      <c r="E5" s="7">
-        <v>74588</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="E14" s="8">
+        <v>34800</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E17" s="4">
+        <v>67000</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="6">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7">
-        <v>19750</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7">
-        <v>29110</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7">
-        <v>651850</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="9">
-        <v>11</v>
-      </c>
-      <c r="E9" s="10">
-        <v>62490</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="6">
-        <v>12</v>
-      </c>
-      <c r="E13" s="7">
-        <v>48400</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="9">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10">
-        <v>34800</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
+      <c r="E18" s="8">
+        <v>31845</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="6">
-        <v>14</v>
-      </c>
-      <c r="E17" s="7">
-        <v>67000</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" s="9">
-        <v>15</v>
-      </c>
-      <c r="E18" s="10">
-        <v>31845</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>16</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="4">
         <v>44100</v>
       </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>31</v>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2">
+        <v>17</v>
+      </c>
+      <c r="E22" s="5">
+        <v>13700</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="11">
-        <v>5000</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="10">
+        <v>18</v>
+      </c>
+      <c r="E23" s="5">
+        <v>113572</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,7 +866,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F2:F21"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B21"/>
     <mergeCell ref="A2:A5"/>
@@ -838,6 +876,7 @@
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F2:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bills/Bills.xlsx
+++ b/bills/Bills.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\dhonan-ubuntu\Workspaces\oiltank-checker\bills\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\dhonan-ubuntu\Workspaces\TankScope\bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737FA101-3AB4-4076-B5E4-BD7902123C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788F8556-33D9-4AA5-9D9C-976CC462AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Toko</t>
+  </si>
+  <si>
+    <t>Lem Dextone</t>
+  </si>
+  <si>
+    <t>Cadangan Saklar + Resistor</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -189,6 +195,32 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -213,19 +245,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,10 +576,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -559,14 +591,14 @@
       <c r="E2" s="4">
         <v>59523.66</v>
       </c>
-      <c r="F2" s="6">
-        <f>SUM(E2:E32)</f>
-        <v>1676574.1600000001</v>
+      <c r="F2" s="8">
+        <f>SUM(E2:E34)</f>
+        <v>1706474.1600000001</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -576,11 +608,11 @@
       <c r="E3" s="4">
         <v>393021.5</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
@@ -590,11 +622,11 @@
       <c r="E4" s="4">
         <v>27824</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -604,13 +636,13 @@
       <c r="E5" s="4">
         <v>74588</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -622,11 +654,11 @@
       <c r="E6" s="4">
         <v>19750</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -636,11 +668,11 @@
       <c r="E7" s="4">
         <v>29110</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
@@ -650,55 +682,55 @@
       <c r="E8" s="4">
         <v>651850</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>11</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>62490</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
@@ -708,45 +740,45 @@
       <c r="E13" s="4">
         <v>48400</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>13</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>34800</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
@@ -756,35 +788,35 @@
       <c r="E17" s="4">
         <v>67000</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>15</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>31845</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
@@ -794,63 +826,85 @@
       <c r="E20" s="4">
         <v>44100</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4">
+        <v>17400</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="E22" s="5">
+        <v>7000</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>17</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <v>13700</v>
       </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2">
+        <v>19</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10500</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D25" s="2">
         <v>18</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E25" s="5">
         <v>113572</v>
       </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
@@ -858,25 +912,33 @@
     <row r="27" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="F2:F25"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="B6:B22"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="A6:A22"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F2:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bills/Bills.xlsx
+++ b/bills/Bills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\dhonan-ubuntu\Workspaces\TankScope\bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788F8556-33D9-4AA5-9D9C-976CC462AB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96684F7-17BA-4603-8A53-FD7965C4E721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Cadangan Saklar + Resistor</t>
+  </si>
+  <si>
+    <t>Wing Bolt</t>
+  </si>
+  <si>
+    <t>Rubber Pad</t>
   </si>
 </sst>
 </file>
@@ -245,12 +251,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,6 +259,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,10 +582,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -591,14 +597,14 @@
       <c r="E2" s="4">
         <v>59523.66</v>
       </c>
-      <c r="F2" s="8">
-        <f>SUM(E2:E34)</f>
-        <v>1706474.1600000001</v>
+      <c r="F2" s="6">
+        <f>SUM(E2:E36)</f>
+        <v>1739774.1600000001</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -608,11 +614,11 @@
       <c r="E3" s="4">
         <v>393021.5</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
@@ -622,11 +628,11 @@
       <c r="E4" s="4">
         <v>27824</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -636,13 +642,13 @@
       <c r="E5" s="4">
         <v>74588</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -654,11 +660,11 @@
       <c r="E6" s="4">
         <v>19750</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
@@ -668,11 +674,11 @@
       <c r="E7" s="4">
         <v>29110</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
@@ -682,55 +688,55 @@
       <c r="E8" s="4">
         <v>651850</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="9">
         <v>11</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="10">
         <v>62490</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
@@ -740,45 +746,45 @@
       <c r="E13" s="4">
         <v>48400</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="9">
         <v>13</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="10">
         <v>34800</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
@@ -788,35 +794,35 @@
       <c r="E17" s="4">
         <v>67000</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="9">
         <v>15</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="10">
         <v>31845</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
@@ -826,11 +832,11 @@
       <c r="E20" s="4">
         <v>44100</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="3" t="s">
         <v>38</v>
       </c>
@@ -840,77 +846,99 @@
       <c r="E21" s="4">
         <v>17400</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2">
+        <v>21</v>
+      </c>
+      <c r="E22" s="4">
+        <v>17200</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4">
+        <v>13100</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="5">
-        <v>7000</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="E24" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>3</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D25" s="2">
         <v>17</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E25" s="5">
         <v>13700</v>
       </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="3" t="s">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D26" s="2">
         <v>19</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E26" s="5">
         <v>10500</v>
       </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>4</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D27" s="2">
         <v>18</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E27" s="5">
         <v>113572</v>
       </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
@@ -918,21 +946,27 @@
     <row r="29" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F2:F25"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="B6:B24"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="A6:A24"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D14:D16"/>
